--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2114.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2114.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.72362181549581</v>
+        <v>1.345812797546387</v>
       </c>
       <c r="B1">
-        <v>1.98343387032092</v>
+        <v>4.082015037536621</v>
       </c>
       <c r="C1">
-        <v>1.631110939864531</v>
+        <v>2.069024801254272</v>
       </c>
       <c r="D1">
-        <v>1.667363546278725</v>
+        <v>1.582843065261841</v>
       </c>
       <c r="E1">
-        <v>1.900592171785781</v>
+        <v>1.421786546707153</v>
       </c>
     </row>
   </sheetData>
